--- a/pred_ohlcv/54_21/2020-01-12 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>49.42893298999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-73.80620333000002</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-71.89160333000001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-80.88440589000001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-80.07080589000002</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-84.05980589000002</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-84.04710589000003</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-84.20880589000002</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-82.71380589000002</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-83.01860589000002</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-80.82030589000001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-80.80160589000002</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-69.35717000000002</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-68.35717000000002</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-74.73747725000003</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-75.26687725000002</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-74.15357725000003</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-70.49157141000002</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-59.60761477000002</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11.69440009999998</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>20.26750009999998</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>21.79920009999998</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>10.99212574999998</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>10.06460337999998</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15.27978100999998</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1.18784458999998</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>0.7048436399999797</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1.03513325999998</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>8.722087949999979</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>7.71278794999998</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4.930187949999979</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>7.412887949999979</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>9.289987949999979</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>9.139187949999979</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>12.79759127999998</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10.93849127999998</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10.95339127999998</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>11.34819127999998</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>13.31559127999998</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>12.83849127999998</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3.313991279999978</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>0.8409912799999786</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1.693906640000022</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1.655597800000022</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1.855597800000022</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2.432897800000021</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2.432897800000021</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5.370397800000021</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>44.00946117999995</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>49.50016959999994</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>34.43776959999995</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>31.57617785999994</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>110.19234073</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>102.71746137</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>96.07076278999996</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>100.34086421</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>98.49274175999996</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>108.22574176</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>111.97474176</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>101.34354176</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>95.67706357999997</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>91.31768256999996</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>89.33058256999996</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>95.82018256999996</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>97.46588256999996</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>94.12581386999996</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>95.66761386999995</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>93.54055203999995</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>90.20948593999995</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>88.67272510999994</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>84.54932510999994</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>79.40336795999994</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>76.78576795999994</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>81.55226795999994</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>61.14476795999994</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>55.93766795999994</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>45.16286795999994</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>42.47146795999994</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>37.84144561999994</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>30.72374557999995</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>37.97824557999995</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>46.41174553999996</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>49.78344553999995</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-86.63087687000014</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-87.30747687000013</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-91.25357687000013</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-91.62677687000013</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-95.19597687000012</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-103.4560768700001</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-108.6921768700001</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-113.3661768700001</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-113.3661768700001</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-104.6627066300001</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-101.6084066300001</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-99.38059464000011</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-102.6619872700001</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-99.69039926000011</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-99.69039926000011</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-118.1144398800001</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-116.9575398800001</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-116.1878398800001</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-116.1738398800001</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-109.0816398800001</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-110.3580979800001</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-105.6149289900001</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-105.8468289900001</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-105.6653350900001</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-105.8932350900001</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-105.8932350900001</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-100.6115258000001</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-100.6871258000001</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-99.04002580000014</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-98.40612580000014</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-98.40612580000014</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-96.94569759000014</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-106.2200795700001</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-106.3153795700001</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-106.2642795700001</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-106.0217795700001</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-105.8071795700001</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-106.0655795700001</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-106.0655795700001</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-105.7936795700001</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-111.4485795700001</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-111.4810795700001</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-107.0587062400001</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-107.3776062400001</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-107.1941062400001</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-107.1941062400001</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-102.4956062400001</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-102.5077062400001</v>
       </c>
       <c r="H1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-102.2291795700001</v>
       </c>
       <c r="H1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-104.9891795700001</v>
       </c>
       <c r="H1256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-102.8127795700001</v>
       </c>
       <c r="H1258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-102.5920434900001</v>
       </c>
       <c r="H1259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-103.4176034900001</v>
       </c>
       <c r="H1260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-103.4176034900001</v>
       </c>
       <c r="H1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-101.4763034900001</v>
       </c>
       <c r="H1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-108.0003082000001</v>
       </c>
       <c r="H1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>-120.1176792500001</v>
       </c>
       <c r="H1287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-124.1209792500001</v>
       </c>
       <c r="H1291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-124.1209792500001</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-123.6704792500001</v>
       </c>
       <c r="H1293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-122.7187812600001</v>
       </c>
       <c r="H1304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-122.7187812600001</v>
       </c>
       <c r="H1305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-122.3834833800001</v>
       </c>
       <c r="H1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-122.3834833800001</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-109.3643812600001</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-112.2341107100001</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-112.2341107100001</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-113.2733107100001</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-109.9803571300001</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-109.9559571300001</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-110.1088571300001</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-112.1125571300001</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-112.5519571300001</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-113.0503571300001</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-112.3161850900001</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-112.1454850900001</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-107.6644410100001</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-107.6644410100001</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-106.4480410100001</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-107.0567772000001</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-106.9309577700001</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-106.9309577700001</v>
       </c>
       <c r="H1335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-102.8231578200001</v>
       </c>
       <c r="H1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-102.8231578200001</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>49.42893298999998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-80.82030589000001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-80.80160589000002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-69.35717000000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-68.35717000000002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-68.52830752000003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-70.07170752000003</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-69.89757725000003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-74.73747725000003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-75.26687725000002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-74.15357725000003</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-70.49157141000002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-59.60761477000002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-60.67261477000002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-56.27661477000002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-48.01730220000002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-53.04780220000002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-52.41370227000002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-30.63740227000002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11.69440009999998</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>20.26750009999998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>21.79920009999998</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>10.99212574999998</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>10.06460337999998</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15.27978100999998</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1.18784458999998</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>0.7048436399999797</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1.03513325999998</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>8.722087949999979</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>7.71278794999998</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4.930187949999979</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>7.412887949999979</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>9.289987949999979</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>9.139187949999979</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>12.79759127999998</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10.93849127999998</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10.95339127999998</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>11.34819127999998</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>13.31559127999998</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>12.83849127999998</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3.313991279999978</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>0.8409912799999786</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1.693906640000022</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1.655597800000022</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1.855597800000022</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2.432897800000021</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2.432897800000021</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5.370397800000021</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>44.00946117999995</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>49.50016959999994</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>34.43776959999995</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>31.57617785999994</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>102.71746137</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>96.07076278999996</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>100.34086421</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>98.49274175999996</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>108.22574176</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>111.97474176</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>101.34354176</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>95.67706357999997</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>91.31768256999996</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>89.33058256999996</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>95.82018256999996</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>97.46588256999996</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>94.12581386999996</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>95.66761386999995</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>93.54055203999995</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>90.20948593999995</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>88.67272510999994</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>84.54932510999994</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>79.40336795999994</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>76.78576795999994</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>81.55226795999994</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>61.14476795999994</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>55.93766795999994</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>45.16286795999994</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-86.63087687000014</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-87.30747687000013</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-91.25357687000013</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-91.62677687000013</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-95.19597687000012</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-103.4560768700001</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-108.6921768700001</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-113.3661768700001</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-113.3661768700001</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-104.6627066300001</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-101.6084066300001</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-99.38059464000011</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-102.6619872700001</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-99.69039926000011</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-99.69039926000011</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-118.1144398800001</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-116.9575398800001</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-116.1878398800001</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-116.1738398800001</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-109.0816398800001</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-110.7352398800001</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-110.3580979800001</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-106.4809289900001</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-104.6379289900001</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-105.6149289900001</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-105.8468289900001</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-105.6653350900001</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-105.8932350900001</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-105.8932350900001</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-100.6115258000001</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-100.6871258000001</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-99.04002580000014</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-98.40612580000014</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-98.40612580000014</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-99.39377957000015</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-99.69767957000015</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-105.4244795700001</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-106.2200795700001</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-106.3153795700001</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-106.2642795700001</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-106.0217795700001</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-105.8071795700001</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-106.0655795700001</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-106.0655795700001</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-105.7936795700001</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-111.4485795700001</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-111.4810795700001</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-107.0587062400001</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-107.0587062400001</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-107.1941062400001</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-107.1941062400001</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-102.4956062400001</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-102.2291795700001</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-104.9891795700001</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-102.7140795700001</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-102.8127795700001</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-102.5920434900001</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-103.4176034900001</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-103.4176034900001</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-101.4763034900001</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-108.0003082000001</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-107.4289082000001</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-102.2165089900001</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-124.1209792500001</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-123.6704792500001</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-121.2451792500001</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-122.7187812600001</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-122.7187812600001</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-112.2341107100001</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-112.2341107100001</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-113.2733107100001</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-109.9803571300001</v>
       </c>
       <c r="H1317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-109.9559571300001</v>
       </c>
       <c r="H1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-110.1088571300001</v>
       </c>
       <c r="H1319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-112.1125571300001</v>
       </c>
       <c r="H1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-112.5519571300001</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-113.0503571300001</v>
       </c>
       <c r="H1322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-112.3161850900001</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-112.1454850900001</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-107.6644410100001</v>
       </c>
       <c r="H1330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-107.0567772000001</v>
       </c>
       <c r="H1332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-106.9309577700001</v>
       </c>
       <c r="H1334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-106.9309577700001</v>
       </c>
       <c r="H1335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-102.8231578200001</v>
       </c>
       <c r="H1336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-102.8231578200001</v>
       </c>
       <c r="H1337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
